--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45804.70207175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44379</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45811.64190972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45215</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>45784.63335648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44557.4596875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44333.6091087963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>45805.7403125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>45811.63590277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45825</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>45954.40697916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45583.48347222222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>46044.66402777778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44294.58495370371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44477</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44501</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44497.84542824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44284</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44323</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44399.58929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44482.5663425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44280</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44280</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44337</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44375.53055555555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44473</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44622</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44622</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44680.61315972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44293.63837962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44687</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44819</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44827</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44587</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44676</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44566</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44575</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44858.45100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44655</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858.45300925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44753.49215277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44414</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44753.47837962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44580</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44875.5665625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44270.62864583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44463.3425462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44298.56068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44298.56302083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44809</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44575</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44824.61237268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44269</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44280</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44287</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44526</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44454</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44482.55201388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44657</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44426</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44575</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44664</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44664.66428240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44482.53399305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44728</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44312.61876157407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44526.39513888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44426</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44490</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44482.57855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45594.59869212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45758.35006944444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44862.32791666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>44867.40162037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>45588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>45098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44664</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45678.47168981482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44879.57217592592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44859</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45330</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45720</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45720.631875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45762</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45044.40798611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44964.68663194445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45048</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44831</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>45569</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45561</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>45665</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44664</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44844</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>45539</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>45191.4702662037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>45728.49331018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>45665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>45503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44386</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>45267</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45457</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44623.56711805556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45632</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44477</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45274.50646990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45804.6831712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>45804.70018518518</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45804.67055555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>45804.68510416667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45804.68815972222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45804.68006944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45804.64814814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45033.58347222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45804.69050925926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>45239</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>45804.69883101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45804.65229166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44531</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>45804</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>45804.70835648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>45527.66153935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44600</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44276</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45891</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45548</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45709</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>45901.69684027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45596.57716435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44753.57265046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45901.70085648148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>45820.41212962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>45820.59189814814</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>45820.58274305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45903</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45902</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45821.55743055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44853.68895833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45097</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45747</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45261.06280092592</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>45600</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45902</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>45603.39285879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>45603.4342824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45603.43005787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45908</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45789.44361111111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44431</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45603</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45428</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45629.49311342592</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45219.3088425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45733.68571759259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45915.45158564814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45916.54671296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44838</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45838.43098379629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45831.7063425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44603.59520833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45715.49331018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45337.4684837963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45523.46952546296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45923.50240740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45849</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45849.78916666667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45033.59030092593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45835</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45835.41712962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45929.45483796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45926.39542824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45181</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45930.63986111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45196</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44473.58824074074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45617</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45202.66664351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44963.64883101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44270.36438657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44568</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45936.59168981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45181</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45748</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45934.68024305555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45934.69131944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45358</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45937.65512731481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45183</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44844.62366898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44547</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45909</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45937.64766203704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44795</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45764.57350694444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44575.56153935185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44306</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45670</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>45631.40947916666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45596.56288194445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45085.60123842592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>45947.58820601852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>45947.55598379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>45636.585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>45825</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45758.59920138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45817.37207175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45405</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45040</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>45782</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>45849</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45849</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45869</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45868</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45209</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45520</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45804.65050925926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45804.67412037037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45870.51723379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45429</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45877</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45876</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45393</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45264.39444444444</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45876</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45965.64733796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>45964.66271990741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44824.68791666667</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45596.58372685185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45569</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45966.69570601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45966.59737268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45971.65589120371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45679</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45733.56331018519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45750</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45628</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45975.60608796297</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45160.41996527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>45061</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>45747.44670138889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>45527.66770833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>45979</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>45131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44477</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45589.31866898148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45982</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44907.48258101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45733.56541666666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45636.68755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45614.66953703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45372.68020833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>46030</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45548</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>45083</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>45628</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>45992.45567129629</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45993.48043981481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45044.3782175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45994.83415509259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>45629.63302083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>45994.45039351852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>46036.50010416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45994.45378472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45631.39947916667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45226</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45764.59533564815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44941</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44502</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45999</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45740</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>46001.5659375</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44532</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45824.71537037037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>46002.66555555556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45021</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>46002.90059027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45887</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44941</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44941</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>46003.44765046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45434</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45511.34605324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>46049.56914351852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>46007.91961805556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>46050.89431712963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44455</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45701.49315972222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>46008.60365740741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>46009</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>46007.92175925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>46007.92581018519</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44761</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>45603.39427083333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>46007.92395833333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45457.4584837963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>46052.62738425926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>46052.61201388889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>46052.63005787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46052.49119212963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>46052.62184027778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>46052.62506944445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>46052</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>46036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>46057.63806712963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45677.63206018518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>46057.63243055555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45215</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>46058.45677083333</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44893</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45553</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44910.53026620371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>46058.45831018518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>46058.46399305556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45001</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44901</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44907.72241898148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44370.56901620371</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44525.70237268518</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>46058.46113425926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>46025</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45369</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44525</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45603.4262037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45603.42839120371</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45623.5546412037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44991</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44482</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45350.33020833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45350.33349537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44980</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44676</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44364</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45117.50368055556</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44343.4558912037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>45744</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>45609.42939814815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45230</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45554</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45477</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45224.61636574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44763.45711805556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45762</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45008</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45607.7627662037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>44575</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45596.59140046296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45631</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45362.45130787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>44386.42</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45748</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45477</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44531</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44869</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45190</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44827.63826388889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45707.8561574074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45453.4396412037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45609</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45489.41609953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45139</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45629.62798611111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>44753.57703703704</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44753.57829861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44839</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44915.4128587963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45164</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45055.5670949074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44609</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45554</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45155</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45603</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44735</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45323.45954861111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45519</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45448.73118055556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45063</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45740.61288194444</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45762</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45099.58885416666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45679</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45561</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45306</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45565.63358796296</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45181</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44966.55946759259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45756</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45691</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44395</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45632.4334375</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44950</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45764.59631944444</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>45385</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45306.73770833333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45603.39686342593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44900</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44508</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>44693</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44594.4471412037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>44775</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45377</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45188</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44496</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45527.6516087963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45603.39041666667</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45785.57512731481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45785.56398148148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45489.39447916667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45618</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45789.57790509259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45789.49515046296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45789.49747685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45789.63454861111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45789.6669212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45701</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45789.64643518518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44526.39126157408</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45789.5005787037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45789.6686574074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45789.65693287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45789.65944444444</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45789.57371527778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45790.56964120371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45580</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45369</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44557</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45526</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45694</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45694</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45656</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45727</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45804.70207175926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45104</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44379</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45811.64190972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45215</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>45784.63335648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44391</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>44557.4596875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>44333.6091087963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>45805.7403125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>45811.63590277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44935</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45825</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>45954.40697916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45480</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45583.48347222222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>46044.66402777778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44294.58495370371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44477</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44501</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44497.84542824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44284</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44323</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44399.58929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44482.5663425926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44280</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44280</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44337</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44375.53055555555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44473</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44622</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44622</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>44680.61315972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44851</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44293.63837962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44687</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44819</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44827</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44587</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44676</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44566</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44575</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>44858.45100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>44655</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>44858.45300925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44753.49215277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44414</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44810</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44753.47837962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44580</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44875.5665625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44270.62864583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44463.3425462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44298.56068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44298.56302083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44809</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44575</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44824.61237268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44269</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44280</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44287</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44526</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44454</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44532</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44482.55201388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44657</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44426</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44575</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44314</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44664</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44664.66428240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44446</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44482.53399305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44728</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44312.61876157407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44526.39513888889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44426</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44679</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44490</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44482.57855324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45594.59869212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45758.35006944444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44862.32791666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>44867.40162037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>45588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>45098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44664</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45678.47168981482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>44879.57217592592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44859</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45642</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45330</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45720</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45720.631875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45762</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44707</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45565</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>45044.40798611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44964.68663194445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45476</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45048</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44831</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>45569</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>45561</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>45665</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44664</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44844</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>45539</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>45191.4702662037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>45728.49331018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>45665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>45503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44386</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>45267</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44910</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45457</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>44623.56711805556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45572</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45632</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44477</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45274.50646990741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45804.6831712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>45804.70018518518</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45804.67055555555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>45804.68510416667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>45804.68815972222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45804.68006944445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45804.64814814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45033.58347222222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45804.69050925926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>45239</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>45804.69883101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45804.65229166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44531</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>45804</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>45804.70835648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>45527.66153935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44600</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44276</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45891</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45548</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45709</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>45901.69684027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45596.57716435185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45596</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45901</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44753.57265046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45901.70085648148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>45820.41212962963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>45820.59189814814</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>45820.58274305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45903</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45902</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45821.55743055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44853.68895833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45097</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45747</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45261.06280092592</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>45600</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45902</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>45603.39285879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>45603.4342824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45603.43005787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>45908</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45789.44361111111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>44431</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45603</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45428</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45629.49311342592</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45219.3088425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45733.68571759259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45915.45158564814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45916.54671296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44838</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45838.43098379629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45831.7063425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44603.59520833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45715.49331018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45337.4684837963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45523.46952546296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45923.50240740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45849</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45849.78916666667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45033.59030092593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45835</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45835.41712962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45929.45483796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45926.39542824074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45181</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45930.63986111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45196</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44473.58824074074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45617</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45202.66664351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44963.64883101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44270.36438657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44568</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45936.59168981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45181</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45748</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45934.68024305555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45934.69131944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45358</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45937.65512731481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45183</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44844.62366898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44547</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45909</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45937.64766203704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44795</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45764.57350694444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44575.56153935185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44306</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45670</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>45631.40947916666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45596.56288194445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45225</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45085.60123842592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>45947.58820601852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>44235</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>45947.55598379629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>45636.585</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>45825</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45758.59920138889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45817.37207175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45405</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45804</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45040</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>45782</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>45849</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45849</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45869</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45868</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45209</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45520</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45804.65050925926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45804.67412037037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45870.51723379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45429</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45877</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>45876</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44623</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45393</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45264.39444444444</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45876</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45965.64733796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>45964.66271990741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44824.68791666667</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45596.58372685185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45569</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45966.69570601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45966.59737268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45971.65589120371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45679</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45733.56331018519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>45750</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45628</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45975.60608796297</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45160.41996527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45069</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>45061</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>45747.44670138889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>45527.66770833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>45979</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>45131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44477</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45589.31866898148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44872</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45982</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45979</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44907.48258101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44979</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45733.56541666666</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45636.68755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45614.66953703704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45372.68020833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>46030</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45548</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>45083</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>45628</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>45992.45567129629</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45993.48043981481</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45044.3782175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45994.83415509259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>45629.63302083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>45994.45039351852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>46036.50010416667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>45994.45378472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45631.39947916667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>45226</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45764.59533564815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45999</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>44941</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44502</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45999</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45740</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>46001.5659375</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44532</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45824.71537037037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>46002.66555555556</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45021</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>46002.90059027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45887</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>44941</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>44941</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>46003.44765046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45434</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44941</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45511.34605324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>46049.56914351852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>46007.91961805556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>46050.89431712963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44455</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22007,7 +22007,7 @@
         <v>45701.49315972222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>46008.60365740741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>46009</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>46007.92175925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>46007.92581018519</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44761</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>45603.39427083333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>46007.92395833333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44735</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45457.4584837963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>46052.62738425926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>46052.61201388889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>46052.63005787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46052.49119212963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>46052.62184027778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>46052.62506944445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>46052</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>46036</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>46057.63806712963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45677.63206018518</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>46057.63243055555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45215</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>46058.45677083333</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44893</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45553</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44910.53026620371</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>46058.45831018518</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>46058.46399305556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45001</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44901</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44907.72241898148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44370.56901620371</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44525.70237268518</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>46058.46113425926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>46025</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44789</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45369</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44525</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45603.4262037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45603.42839120371</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45623.5546412037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>44991</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>44482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44482</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45350.33020833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45350.33349537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44980</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44676</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>44364</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45117.50368055556</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44343.4558912037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>45744</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>45609.42939814815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45230</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45554</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44482</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45477</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45224.61636574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>44763.45711805556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45762</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45008</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45607.7627662037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>44575</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>45596.59140046296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45631</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>45362.45130787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>44386.42</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>45748</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26064,7 +26064,7 @@
         <v>45477</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26121,7 +26121,7 @@
         <v>44531</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>44869</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45190</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>44827.63826388889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45707.8561574074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45453.4396412037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45609</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45489.41609953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45139</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45629.62798611111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>44753.57703703704</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44753.57829861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>44839</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44915.4128587963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45164</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45055.5670949074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>44609</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45554</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45155</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45603</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44735</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45323.45954861111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45519</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45448.73118055556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>45063</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45740.61288194444</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27675,7 +27675,7 @@
         <v>45519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27732,7 +27732,7 @@
         <v>45762</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45099.58885416666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45679</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45561</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>45306</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>45565.63358796296</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>45181</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44966.55946759259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>45756</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>45691</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44395</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>45632.4334375</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44950</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>45764.59631944444</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>45385</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45306.73770833333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45603.39686342593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44900</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44508</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>44693</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44594.4471412037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>44775</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45377</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45638</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45188</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44496</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45527.6516087963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45603.39041666667</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45785.57512731481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45785.56398148148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45489.39447916667</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45618</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45789.57790509259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45789.49515046296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45789.49747685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45789.63454861111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45789.6669212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45701</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45789.64643518518</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44526.39126157408</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45789.5005787037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45789.6686574074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45789.65693287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45789.65944444444</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45789.57371527778</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45790.56964120371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45580</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>45369</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44557</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30701,7 +30701,7 @@
         <v>45526</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>45037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45694</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45694</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45656</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45727</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45104</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45804.70207175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44379</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>46070.30649305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>45784.63335648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45811.64190972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44557.4596875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>44333.6091087963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>45825</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45954.40697916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45583.48347222222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>46044.66402777778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45191</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45805.7403125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45811.63590277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44294.58495370371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44260</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44497.84542824074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44284</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44323</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44399</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44399.58929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44482.5663425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44280</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44280</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>44473</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>44375.53055555555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44622</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44622</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44680.61315972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44851</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44293.63837962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44687</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44827</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44566</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44575</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44858.45100694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44858.45300925926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44753.49215277778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44753.47837962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44875.5665625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44580</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44270.62864583333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44298.56068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44298.56302083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44463.3425462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44575</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44824.61237268519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44269</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44357</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44287</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44454</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44482.55201388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44768</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44426</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44575</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44664</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44664.66428240741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44694</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44482.53399305556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44312.61876157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44526.39513888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44426</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44490</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44482.57855324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44363</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45594.59869212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45007</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45758.35006944444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44867.40162037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44862.32791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>45588</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44879.57217592592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44664</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>45678.47168981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45098</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45330</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>45697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45565</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45720.631875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45762</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45044.40798611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44964.68663194445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45012</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45476</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45048</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44664</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45561</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45665</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45569</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45191.4702662037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45728.49331018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45503</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45267</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44910</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44386</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44623.56711805556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45572</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45274.50646990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44844</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45033.58347222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44306</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44276</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44600</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45548</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44477</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45820.41212962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45820.59189814814</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44531</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45820.58274305556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44267</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45596.57716435185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45596</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45821.55743055556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44753.57265046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45261.06280092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45600</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45603.39285879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45891</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45831.7063425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45428</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45629.49311342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45219.3088425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45733.68571759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45901.69684027778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45835</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45835.41712962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44838</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45901.70085648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45903</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45902</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44603.59520833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45715.49331018519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45337.4684837963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45523.46952546296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44853.68895833333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45902</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45603.4342824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45603.43005787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45748</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45789.44361111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45033.59030092593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45603</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45764.57350694444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45631.40947916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45596.56288194445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45915.45158564814</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45916.54671296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45181</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45838.43098379629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45758.59920138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45196</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45817.37207175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44473.58824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45617</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45202.66664351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44963.64883101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44270.36438657407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44568</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45181</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45782</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45849</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45923.50240740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45358</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45849</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45849</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45849.78916666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45869</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45183</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44844.62366898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44547</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45868</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45929.45483796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45926.39542824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45870.51723379629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44795</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44575.56153935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44306</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45670</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45930.63986111111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45225</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45085.60123842592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45877</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>45876</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>45876</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45636.585</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45936.59168981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45596.58372685185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45934.68024305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45934.69131944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45937.65512731481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45405</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45040</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45937.64766203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45209</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45429</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45947.58820601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45947.55598379629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45393</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45264.39444444444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45804</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44824.68791666667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45569</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45679</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45733.56331018519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45804.67412037037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45750</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45677</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45628</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45160.41996527778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45965.64733796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45964.66271990741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45069</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45747.44670138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45527.66770833333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>45966.69570601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44477</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>45589.31866898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45966.59737268519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45971.65589120371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45975.60608796297</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44907.48258101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45733.56541666666</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45979</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45636.68755787037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45614.66953703704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45372.68020833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45548</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45083</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>45982</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>45628</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45044.3782175926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45992.45567129629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45629.63302083333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45993.48043981481</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45631.39947916667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45226</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45764.59533564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45994.83415509259</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44941</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45994.45039351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44502</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>46036.50010416667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45994.45378472222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>45999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45740</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44532</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>46001.5659375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44941</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44941</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45434</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45824.71537037037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>46002.66555555556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>46002.90059027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45887</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44941</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>46003.44765046296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>45511.34605324074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>45678</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45701.49315972222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>46049.56914351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44761</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>45603.39427083333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44735</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>46007.91961805556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>46050.89431712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>46008.60365740741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>46009</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>46007.92175925926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>46007.92581018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>45457.4584837963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>46007.92395833333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>46052.62738425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>46052.61201388889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>46052.63005787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45677.63206018518</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>46052.49119212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>46052.62184027778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>46052.62506944445</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>46052</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>46057.63806712963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45553</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>46057.63243055555</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44910.53026620371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45001</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44901</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44907.72241898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>46058.45677083333</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44370.56901620371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44525.70237268518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>46058.45831018518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>46058.46399305556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44789</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>46058.46113425926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45369</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45999</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44525</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>46036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45603.4262037037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45603.42839120371</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45623.5546412037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>46064.59081018518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44991</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>45350.33020833333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>45350.33349537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44980</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44676</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>46025</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44364</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45117.50368055556</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44343.4558912037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45744</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>46071.51248842593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>46071.50694444445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45609.42939814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45230</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>46070.30946759259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45554</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>46071.52324074074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45804.65229166667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>46070.51166666667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45804.65050925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>44482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>45224.61636574074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>46030</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44763.45711805556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>45762</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>45008</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>45607.7627662037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44575</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45596.59140046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45631</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45362.45130787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>44386.42</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45748</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45477</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44531</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44869</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45190</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44827.63826388889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45707.8561574074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45453.4396412037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45609</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45489.41609953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45139</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45629.62798611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44753.57703703704</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>44753.57829861111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>44839</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44915.4128587963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45164</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45055.5670949074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44609</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>45554</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45603</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44735</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45323.45954861111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45448.73118055556</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45063</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>45740.61288194444</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45519</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45762</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45099.58885416666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45679</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45561</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45306</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45565.63358796296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44966.55946759259</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45756</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45691</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44395</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45632.4334375</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44950</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>45764.59631944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>45385</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>45306.73770833333</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45603.39686342593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44900</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44508</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45775</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44594.4471412037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44775</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>45377</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>45638</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44496</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>45527.6516087963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>45603.39041666667</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>45785.57512731481</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>45785.56398148148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>45489.39447916667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>45618</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>45789.57790509259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>45741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>45789.49515046296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45789.49747685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45789.63454861111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45789.6669212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45701</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45789.64643518518</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44526.39126157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>45789.5005787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>45789.6686574074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>45789.65693287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>45789.65944444444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>45789.57371527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45790.56964120371</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>45580</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>45369</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44609</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44557</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>45526</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>45037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>45694</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>45694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>45656</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>45727</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>45457</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>45632</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>45804.6831712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45804.70018518518</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45804.67055555555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45804.68510416667</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>45804.68815972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45804.68006944445</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45804.64814814815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45804.69050925926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45804.69883101852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45804</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45804.70835648148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45527.66153935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45817</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44575</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44910</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45104</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45804.70207175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44379</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>46070.30649305556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>45784.63335648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45811.64190972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44557.4596875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>44333.6091087963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>44935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>45825</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45954.40697916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45583.48347222222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>46044.66402777778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45191</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45805.7403125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45811.63590277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44294.58495370371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44260</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44477</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44497.84542824074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44284</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44323</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44399</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44399.58929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44482.5663425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44280</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44280</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>44473</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>44375.53055555555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44622</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44622</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44680.61315972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44851</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44293.63837962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44687</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44827</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44566</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44575</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44858.45100694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44858.45300925926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44753.49215277778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44414</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44753.47837962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44875.5665625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44580</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44270.62864583333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44298.56068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44298.56302083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44463.3425462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44575</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44824.61237268519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44269</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44357</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44287</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44454</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44482.55201388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44768</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44426</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44575</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44664</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44664.66428240741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44694</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44482.53399305556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44312.61876157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44526.39513888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44426</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44490</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44482.57855324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44363</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45594.59869212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45007</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45758.35006944444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44867.40162037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44862.32791666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>45588</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44879.57217592592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44664</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>45678.47168981482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45098</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44859</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45642</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45330</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>45697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45565</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45720.631875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45762</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44707</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45044.40798611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44964.68663194445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45012</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45476</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45048</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>44831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44664</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45561</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45665</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45569</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45191.4702662037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45728.49331018519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45503</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45665</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45665</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45267</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44910</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>44386</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>44623.56711805556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45572</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45274.50646990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44844</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45033.58347222222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>44306</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44276</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>44600</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45548</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44477</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45820.41212962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45820.59189814814</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44531</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45820.58274305556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44267</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45596.57716435185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45596</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45821.55743055556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44753.57265046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45097</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45747</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45261.06280092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45600</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>45603.39285879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>45891</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45831.7063425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45428</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45629.49311342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45219.3088425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45733.68571759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45901.69684027778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45835</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45835.41712962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44838</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45901.70085648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45903</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45902</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44603.59520833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45715.49331018519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>45337.4684837963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>45523.46952546296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>44853.68895833333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45902</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45603.4342824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45603.43005787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45908</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45748</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>45789.44361111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45033.59030092593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45603</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45764.57350694444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45614</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45631.40947916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45596.56288194445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45915.45158564814</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45916.54671296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45181</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45838.43098379629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45758.59920138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45196</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45817.37207175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44473.58824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45617</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45202.66664351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44963.64883101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44270.36438657407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44568</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45181</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45782</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45849</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45923.50240740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45358</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45849</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45849</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45849.78916666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45869</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>45183</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44844.62366898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>44547</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45868</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>45929.45483796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>45926.39542824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45870.51723379629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44795</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44575.56153935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44306</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>45670</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>45930.63986111111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45225</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45085.60123842592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45877</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>45876</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>45876</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45636.585</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45936.59168981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45596.58372685185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45934.68024305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45934.69131944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45937.65512731481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45405</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45040</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45937.64766203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45209</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45520</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45061</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45429</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45947.58820601852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45947.55598379629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45377</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44623</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45393</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45264.39444444444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45804</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44824.68791666667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45569</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>45083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45679</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45733.56331018519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45804.67412037037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45750</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45677</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45628</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>45160.41996527778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45965.64733796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45964.66271990741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>45069</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45747.44670138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45527.66770833333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>45966.69570601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44477</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>45589.31866898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45966.59737268519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44872</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45971.65589120371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45975.60608796297</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44907.48258101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44979</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>45733.56541666666</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>45979</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45636.68755787037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45614.66953703704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45372.68020833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>45548</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>45083</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>45982</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>45628</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45979</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45044.3782175926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45992.45567129629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45629.63302083333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45993.48043981481</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45631.39947916667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45226</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45764.59533564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45994.83415509259</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44941</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45994.45039351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44502</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>46036.50010416667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45994.45378472222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>45999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45740</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44532</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45999</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>46001.5659375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45021</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44941</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44941</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45434</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>45824.71537037037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>46002.66555555556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>46002.90059027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45887</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44941</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>46003.44765046296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>45511.34605324074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>45678</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45701.49315972222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>46049.56914351852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44761</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>45603.39427083333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44735</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>46007.91961805556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>46050.89431712963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>46008.60365740741</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>46009</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>46007.92175925926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>46007.92581018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>45457.4584837963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>46007.92395833333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>46052.62738425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>46052.61201388889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>46052.63005787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45677.63206018518</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>46052.49119212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>46052.62184027778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>46052.62506944445</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45215</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>46052</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44893</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>46057.63806712963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45553</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>46057.63243055555</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>44910.53026620371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45001</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44901</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44907.72241898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>46058.45677083333</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44370.56901620371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44525.70237268518</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
         <v>46058.45831018518</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
         <v>46058.46399305556</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>44789</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>46058.46113425926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45369</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>45999</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>44525</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>46036</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45603.4262037037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45603.42839120371</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45623.5546412037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>46064.59081018518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44991</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23523,7 +23523,7 @@
         <v>44482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>45350.33020833333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>45350.33349537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44980</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44676</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>46025</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44364</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>45117.50368055556</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>44343.4558912037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45744</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>46071.51248842593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>46071.50694444445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45609.42939814815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45230</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>46070.30946759259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45554</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>46071.52324074074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>45804.65229166667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>46070.51166666667</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45804.65050925926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>44482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>45224.61636574074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>46030</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>44763.45711805556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>45762</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>45008</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>45607.7627662037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>44575</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>45596.59140046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45631</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45362.45130787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>44386.42</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45748</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45477</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25580,7 +25580,7 @@
         <v>44531</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         <v>44869</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45190</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44827.63826388889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45707.8561574074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45453.4396412037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45609</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45489.41609953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>45139</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45629.62798611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>44753.57703703704</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>44753.57829861111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>44839</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44915.4128587963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45164</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45055.5670949074</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>44609</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>45554</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>45155</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         <v>44875</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45603</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>44735</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45323.45954861111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45448.73118055556</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45063</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>45740.61288194444</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45519</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45762</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45099.58885416666</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45679</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45561</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45306</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>45565.63358796296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>45181</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44966.55946759259</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45756</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45691</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44395</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45632.4334375</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44950</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>45764.59631944444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>45385</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>45306.73770833333</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>45603.39686342593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44900</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44508</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45775</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44693</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44594.4471412037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44775</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>45377</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>45638</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45188</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44496</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>45527.6516087963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>45603.39041666667</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>45785.57512731481</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>45785.56398148148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>45489.39447916667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>45618</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>45789.57790509259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>45741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>45789.49515046296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45789.49747685185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45789.63454861111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45789.6669212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45701</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45789.64643518518</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44526.39126157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>45789.5005787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>45789.6686574074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>45789.65693287037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>45789.65944444444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>45789.57371527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45790.56964120371</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>45580</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>45369</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44609</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>44557</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>45526</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>45037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>45694</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>45694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>45656</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>45727</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>45457</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>45632</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>45804.6831712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45804.70018518518</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45804.67055555555</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45804.68510416667</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>45804.68815972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45804.68006944445</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45804.64814814815</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45804.69050925926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45804.69883101852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45804</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45804.70835648148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45527.66153935185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45817</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>

--- a/Översikt ENKÖPING.xlsx
+++ b/Översikt ENKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>44697</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45831</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44301</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>44910</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44575</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45104</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45804.70207175926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44379</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44873</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45811.64190972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45215</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>45296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>46070.30649305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45784.63335648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44391</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44557.4596875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>44333.6091087963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45805.7403125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45811.63590277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44722</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>45825</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45480</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>45419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45954.40697916667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>45519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>46044.66402777778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45191</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45583.48347222222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44294.58495370371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44477</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>44260</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44497.84542824074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>44284</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44399</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44399.58929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44323</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>44482.5663425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>44280</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>44280</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>44375.53055555555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>44473</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44622</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44680.61315972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44622</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44293.63837962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>44851</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44272</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44687</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44819</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>44827</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>44566</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>44575</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44858.45100694444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44655</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44858.45300925926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44293</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44414</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44753.49215277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44810</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44753.47837962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>44875.5665625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
         <v>44580</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44270.62864583333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>44463.3425462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>44298.56068287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>44298.56302083333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44809</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44575</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44824.61237268519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44269</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44287</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>44357</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44454</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>44532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44482.55201388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44768</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44426</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44575</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44314</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44664</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44664.66428240741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44446</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44694</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44482.53399305556</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44312.61876157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44526.39513888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44426</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44679</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44490</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44482.57855324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44363</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44370.56901620371</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>45190</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45323.45954861111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44761</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>45083</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>44270.36438657407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>44867.40162037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45434</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45720</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44872</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45385</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44824.68791666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45457.4584837963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45202.66664351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45181</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44839</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44910</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45733.56541666666</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>44844.62366898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>45477</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44893</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44910.53026620371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45306.73770833333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44941</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45477</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>44477</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45503</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45489.41609953704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45548</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45377</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44379</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45569</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44531</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45603.39285879629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45476</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45448.73118055556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45362.45130787037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45804</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45804.67055555555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45804.69050925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45804.69883101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45804.68006944445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44531</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45181</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45527.66153935185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45008</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45603.39686342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45561</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44623</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45691</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45372.68020833333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>45820.58274305556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45820.41212962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45548</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>45891</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45820.59189814814</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>44941</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45821.55743055556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45523.46952546296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44964.68663194445</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45720.631875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45901.70085648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>45902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45901.69684027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45831.7063425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44853.68895833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44753.57265046296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45903</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44455</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45835.41712962963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45835</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45629.62798611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45628</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45902</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45603.4342824074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45789.44361111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45603.43005787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45748</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45623.5546412037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45631.40947916666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45083</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45603</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45764.57350694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45596.56288194445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>45614.66953703704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45916.54671296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45915.45158564814</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45758.59920138889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>45838.43098379629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>45817.37207175926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>45825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44306</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45642</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45782</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45849</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45849</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45670</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>45636.68755787037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>45565.63358796296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45679</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>45923.50240740741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45868</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>45926.39542824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45870.51723379629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45869</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45849</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45849.78916666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>45701.49315972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45930.63986111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45929.45483796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45224.61636574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44343.4558912037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45511.34605324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45055.5670949074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>45877</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>45596.58372685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44502</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44907.72241898148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44831</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44386.42</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>45678</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>45061</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45934.68024305555</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45715.49331018519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45934.69131944444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45750</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45936.59168981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45155</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45196</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45744</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45937.64766203704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45697</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>45337.4684837963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44525.70237268518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44306</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45909</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45728.49331018519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45937.65512731481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44838</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45775</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44827.63826388889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44473.58824074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>45069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44386</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>45085.60123842592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45188</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44753.57703703704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44753.57829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>45947.58820601852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44395</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45947.55598379629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44879.57217592592</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45350.33349537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45099.58885416666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45804</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45369</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44941</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44941</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>45007</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>45804.67412037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44508</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44915.4128587963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>45358</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44568</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45964.66271990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44991</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>45677</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>45966.69570601852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45966.59737268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44431</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>45965.64733796296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>45405</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>45519</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44482</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44594.4471412037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>45764.59631944444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45569</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45429</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45971.65589120371</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45520</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45428</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44525</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45631.39947916667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45063</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45164</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>44963.64883101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45553</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45975.60608796297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45979</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44978</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45982</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44609</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45758.35006944444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>45979</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44664</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>45600</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>45992.45567129629</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44547</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>45160.41996527778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44603.59520833333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>45594.59869212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>45993.48043981481</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>45740</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45994.45039351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20554,7 +20554,7 @@
         <v>45994.45378472222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         <v>45048</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>45994.83415509259</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>45747</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45999</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45824.71537037037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45999</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44795</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>45554</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45554</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44532</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>45764.59533564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>46001.5659375</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45629.63302083333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>45887</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45453.4396412037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>45677.63206018518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>46002.66555555556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44789</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>46002.90059027778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45117.50368055556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21766,7 +21766,7 @@
         <v>45638</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>45740.61288194444</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44693</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>46003.44765046296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>45561</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44676</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>46008.60365740741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
         <v>46007.91961805556</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>46049.56914351852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22279,7 +22279,7 @@
         <v>46007.92395833333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22336,7 +22336,7 @@
         <v>45572</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
         <v>46007.92581018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44763.45711805556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>46007.92175925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>46009</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>46052.62506944445</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>46052.61201388889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>46052.63005787037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>46052.62738425926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45679</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>46052.49119212963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>46052.62184027778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>46050.89431712963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>46052</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45219.3088425926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44735</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>46057.63243055555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>45225</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>46057.63806712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44276</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>46058.45831018518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>46058.46399305556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>46058.45677083333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23647,7 +23647,7 @@
         <v>45274.50646990741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23704,7 +23704,7 @@
         <v>46058.46113425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>45226</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23818,7 +23818,7 @@
         <v>45999</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>45762</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         <v>45267</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>46064.59081018518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>45261.06280092592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44950</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44735</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45264.39444444444</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>46070.30946759259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>45804.65050925926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>46070.51166666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>45804.65229166667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>46025</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>46071.51248842593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>46071.52324074074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>46030</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>46071.50694444445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45665</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44623.56711805556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45191.4702662037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45631</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45393</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45044.40798611111</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>45131</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>45539</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>46036.50010416667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44575</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>45040</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>46036</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44862.32791666667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45565</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44859</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44775</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44600</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45589.31866898148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45607.7627662037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>45614</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>45603.4262037037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>45603.42839120371</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>45181</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>45306</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>45678.47168981482</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45033.58347222222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45033.59030092593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>45609.42939814815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44267</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44575.56153935185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44966.55946759259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>45209</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44900</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45527.66770833333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45223</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44496</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>45021</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>45183</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>45239</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>45603.39427083333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45377</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45636.585</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>44844</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45665</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45665</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45632.4334375</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>45762</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45139</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44364</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45629.49311342592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>45001</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>45596.59140046296</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44980</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>45097</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>45044.3782175926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>45609</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44979</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28103,7 +28103,7 @@
         <v>45098</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44664</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>45215</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>45230</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44907.48258101852</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>45596.57716435185</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>45596</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>45603</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>45747.44670138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45733.68571759259</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44875</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>45588</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>45733.56331018519</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>45617</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>45628</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44869</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>45707.8561574074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>45350.33020833333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>45603.39041666667</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>45527.6516087963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45618</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>45785.56398148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>45785.57512731481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>45489.39447916667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>45789.49515046296</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>45789.49747685185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>45789.57790509259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>45789.64643518518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>45789.65944444444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>45789.6686574074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>45789.5005787037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>45701</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>45789.63454861111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>45789.57371527778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>45790.56964120371</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44526.39126157408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>45789.65693287037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>45789.6669212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>45037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>45694</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>45526</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>45656</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>45369</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45694</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>45580</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45727</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44557</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45632</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45457</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45804.64814814815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45804.6831712963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>45804.70018518518</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45804.68815972222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45804.68510416667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45804.70835648148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
